--- a/data/stat probs/tobias harris stat probs - condition.xlsx
+++ b/data/stat probs/tobias harris stat probs - condition.xlsx
@@ -18,7 +18,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="away 2023 full" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mia 2023 regular" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mia 2023 full" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="227 before 2023 regular" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="229 before 2023 regular" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 postseason" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="15" state="visible" r:id="rId15"/>
@@ -28,13 +28,13 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 postseason" sheetId="20" state="visible" r:id="rId20"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mil 2023 regular" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mil 2023 full" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 after 2023 regular" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 after 2023 full" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 postseason" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 postseason" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mil 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mil 2023 full" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 after 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 after 2023 full" sheetId="28" state="visible" r:id="rId28"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dal 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dal 2023 full" sheetId="30" state="visible" r:id="rId30"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 before 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
@@ -596,28 +596,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -1558,28 +1558,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -2232,28 +2232,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -3098,28 +3098,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -3868,28 +3868,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4734,22 +4734,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -5088,22 +5088,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -5442,22 +5442,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -5796,28 +5796,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -6694,28 +6694,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -7592,16 +7592,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -7610,10 +7610,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -8298,16 +8298,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -8316,10 +8316,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -9004,28 +9004,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -9678,28 +9678,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -10128,28 +10128,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -11026,28 +11026,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -11924,28 +11924,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -12822,28 +12822,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -13528,28 +13528,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -14234,28 +14234,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -14940,28 +14940,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -15806,28 +15806,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -16704,28 +16704,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
@@ -17474,28 +17474,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -18272,6 +18272,2348 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>12</v>
+      </c>
+      <c r="H2" t="n">
+        <v>88</v>
+      </c>
+      <c r="I2" t="n">
+        <v>25</v>
+      </c>
+      <c r="J2" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>88</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12</v>
+      </c>
+      <c r="I3" t="n">
+        <v>75</v>
+      </c>
+      <c r="J3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>88</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>88</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12</v>
+      </c>
+      <c r="G5" t="n">
+        <v>62</v>
+      </c>
+      <c r="H5" t="n">
+        <v>38</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>88</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12</v>
+      </c>
+      <c r="G6" t="n">
+        <v>38</v>
+      </c>
+      <c r="H6" t="n">
+        <v>62</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>75</v>
+      </c>
+      <c r="F7" t="n">
+        <v>25</v>
+      </c>
+      <c r="G7" t="n">
+        <v>25</v>
+      </c>
+      <c r="H7" t="n">
+        <v>75</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>88</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12</v>
+      </c>
+      <c r="E8" t="n">
+        <v>75</v>
+      </c>
+      <c r="F8" t="n">
+        <v>25</v>
+      </c>
+      <c r="G8" t="n">
+        <v>25</v>
+      </c>
+      <c r="H8" t="n">
+        <v>75</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>88</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12</v>
+      </c>
+      <c r="E9" t="n">
+        <v>25</v>
+      </c>
+      <c r="F9" t="n">
+        <v>75</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12</v>
+      </c>
+      <c r="H9" t="n">
+        <v>88</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>88</v>
+      </c>
+      <c r="D10" t="n">
+        <v>12</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12</v>
+      </c>
+      <c r="F10" t="n">
+        <v>88</v>
+      </c>
+      <c r="G10" t="n">
+        <v>12</v>
+      </c>
+      <c r="H10" t="n">
+        <v>88</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>88</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12</v>
+      </c>
+      <c r="F11" t="n">
+        <v>88</v>
+      </c>
+      <c r="G11" t="n">
+        <v>12</v>
+      </c>
+      <c r="H11" t="n">
+        <v>88</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>88</v>
+      </c>
+      <c r="D12" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F12" t="n">
+        <v>88</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>75</v>
+      </c>
+      <c r="D13" t="n">
+        <v>25</v>
+      </c>
+      <c r="E13" t="n">
+        <v>12</v>
+      </c>
+      <c r="F13" t="n">
+        <v>88</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>75</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="n">
+        <v>88</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>75</v>
+      </c>
+      <c r="D15" t="n">
+        <v>25</v>
+      </c>
+      <c r="E15" t="n">
+        <v>12</v>
+      </c>
+      <c r="F15" t="n">
+        <v>88</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>75</v>
+      </c>
+      <c r="D16" t="n">
+        <v>25</v>
+      </c>
+      <c r="E16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F16" t="n">
+        <v>88</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>62</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>50</v>
+      </c>
+      <c r="D18" t="n">
+        <v>50</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>50</v>
+      </c>
+      <c r="D19" t="n">
+        <v>50</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>50</v>
+      </c>
+      <c r="D20" t="n">
+        <v>50</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>38</v>
+      </c>
+      <c r="D21" t="n">
+        <v>62</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" t="n">
+        <v>62</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>25</v>
+      </c>
+      <c r="D23" t="n">
+        <v>75</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>12</v>
+      </c>
+      <c r="D24" t="n">
+        <v>88</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>12</v>
+      </c>
+      <c r="D25" t="n">
+        <v>88</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>12</v>
+      </c>
+      <c r="D26" t="n">
+        <v>88</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>100</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>100</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>100</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>100</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>100</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>100</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>100</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>100</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11</v>
+      </c>
+      <c r="H2" t="n">
+        <v>89</v>
+      </c>
+      <c r="I2" t="n">
+        <v>22</v>
+      </c>
+      <c r="J2" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>89</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11</v>
+      </c>
+      <c r="I3" t="n">
+        <v>78</v>
+      </c>
+      <c r="J3" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>78</v>
+      </c>
+      <c r="H4" t="n">
+        <v>22</v>
+      </c>
+      <c r="I4" t="n">
+        <v>44</v>
+      </c>
+      <c r="J4" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>89</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11</v>
+      </c>
+      <c r="G5" t="n">
+        <v>56</v>
+      </c>
+      <c r="H5" t="n">
+        <v>44</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11</v>
+      </c>
+      <c r="J5" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>89</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>33</v>
+      </c>
+      <c r="H6" t="n">
+        <v>67</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>78</v>
+      </c>
+      <c r="F7" t="n">
+        <v>22</v>
+      </c>
+      <c r="G7" t="n">
+        <v>22</v>
+      </c>
+      <c r="H7" t="n">
+        <v>78</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>89</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11</v>
+      </c>
+      <c r="E8" t="n">
+        <v>78</v>
+      </c>
+      <c r="F8" t="n">
+        <v>22</v>
+      </c>
+      <c r="G8" t="n">
+        <v>22</v>
+      </c>
+      <c r="H8" t="n">
+        <v>78</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>89</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11</v>
+      </c>
+      <c r="E9" t="n">
+        <v>33</v>
+      </c>
+      <c r="F9" t="n">
+        <v>67</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11</v>
+      </c>
+      <c r="H9" t="n">
+        <v>89</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>89</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11</v>
+      </c>
+      <c r="E10" t="n">
+        <v>22</v>
+      </c>
+      <c r="F10" t="n">
+        <v>78</v>
+      </c>
+      <c r="G10" t="n">
+        <v>11</v>
+      </c>
+      <c r="H10" t="n">
+        <v>89</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>89</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11</v>
+      </c>
+      <c r="E11" t="n">
+        <v>22</v>
+      </c>
+      <c r="F11" t="n">
+        <v>78</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11</v>
+      </c>
+      <c r="H11" t="n">
+        <v>89</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>89</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="n">
+        <v>22</v>
+      </c>
+      <c r="F12" t="n">
+        <v>78</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>78</v>
+      </c>
+      <c r="D13" t="n">
+        <v>22</v>
+      </c>
+      <c r="E13" t="n">
+        <v>22</v>
+      </c>
+      <c r="F13" t="n">
+        <v>78</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>78</v>
+      </c>
+      <c r="D14" t="n">
+        <v>22</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11</v>
+      </c>
+      <c r="F14" t="n">
+        <v>89</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>78</v>
+      </c>
+      <c r="D15" t="n">
+        <v>22</v>
+      </c>
+      <c r="E15" t="n">
+        <v>11</v>
+      </c>
+      <c r="F15" t="n">
+        <v>89</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>78</v>
+      </c>
+      <c r="D16" t="n">
+        <v>22</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11</v>
+      </c>
+      <c r="F16" t="n">
+        <v>89</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>67</v>
+      </c>
+      <c r="D17" t="n">
+        <v>33</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>56</v>
+      </c>
+      <c r="D18" t="n">
+        <v>44</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>44</v>
+      </c>
+      <c r="D19" t="n">
+        <v>56</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>44</v>
+      </c>
+      <c r="D20" t="n">
+        <v>56</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>33</v>
+      </c>
+      <c r="D21" t="n">
+        <v>67</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>33</v>
+      </c>
+      <c r="D22" t="n">
+        <v>67</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" t="n">
+        <v>78</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>11</v>
+      </c>
+      <c r="D24" t="n">
+        <v>89</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>11</v>
+      </c>
+      <c r="D25" t="n">
+        <v>89</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>11</v>
+      </c>
+      <c r="D26" t="n">
+        <v>89</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18340,28 +20682,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -18689,7 +21031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18758,28 +21100,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -19107,7 +21449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19176,28 +21518,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -19781,7 +22123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19850,28 +22192,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -20447,2508 +22789,6 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>78</v>
-      </c>
-      <c r="H3" t="n">
-        <v>22</v>
-      </c>
-      <c r="I3" t="n">
-        <v>44</v>
-      </c>
-      <c r="J3" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>78</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22</v>
-      </c>
-      <c r="J4" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>44</v>
-      </c>
-      <c r="H5" t="n">
-        <v>56</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>78</v>
-      </c>
-      <c r="F6" t="n">
-        <v>22</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>89</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>56</v>
-      </c>
-      <c r="F7" t="n">
-        <v>44</v>
-      </c>
-      <c r="G7" t="n">
-        <v>11</v>
-      </c>
-      <c r="H7" t="n">
-        <v>89</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>33</v>
-      </c>
-      <c r="F8" t="n">
-        <v>67</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>89</v>
-      </c>
-      <c r="D9" t="n">
-        <v>11</v>
-      </c>
-      <c r="E9" t="n">
-        <v>11</v>
-      </c>
-      <c r="F9" t="n">
-        <v>89</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>89</v>
-      </c>
-      <c r="D10" t="n">
-        <v>11</v>
-      </c>
-      <c r="E10" t="n">
-        <v>11</v>
-      </c>
-      <c r="F10" t="n">
-        <v>89</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>67</v>
-      </c>
-      <c r="D11" t="n">
-        <v>33</v>
-      </c>
-      <c r="E11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F11" t="n">
-        <v>89</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>67</v>
-      </c>
-      <c r="D12" t="n">
-        <v>33</v>
-      </c>
-      <c r="E12" t="n">
-        <v>11</v>
-      </c>
-      <c r="F12" t="n">
-        <v>89</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>67</v>
-      </c>
-      <c r="D13" t="n">
-        <v>33</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>56</v>
-      </c>
-      <c r="D14" t="n">
-        <v>44</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>44</v>
-      </c>
-      <c r="D15" t="n">
-        <v>56</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>44</v>
-      </c>
-      <c r="D16" t="n">
-        <v>56</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>33</v>
-      </c>
-      <c r="D17" t="n">
-        <v>67</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>22</v>
-      </c>
-      <c r="D18" t="n">
-        <v>78</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>22</v>
-      </c>
-      <c r="D19" t="n">
-        <v>78</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>11</v>
-      </c>
-      <c r="D20" t="n">
-        <v>89</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>11</v>
-      </c>
-      <c r="D21" t="n">
-        <v>89</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>11</v>
-      </c>
-      <c r="D22" t="n">
-        <v>89</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>11</v>
-      </c>
-      <c r="D23" t="n">
-        <v>89</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>11</v>
-      </c>
-      <c r="D24" t="n">
-        <v>89</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
-        <v>11</v>
-      </c>
-      <c r="D25" t="n">
-        <v>89</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>100</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>100</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>24</v>
-      </c>
-      <c r="C26" t="n">
-        <v>11</v>
-      </c>
-      <c r="D26" t="n">
-        <v>89</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>100</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="n">
-        <v>11</v>
-      </c>
-      <c r="D27" t="n">
-        <v>89</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>100</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>100</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" t="n">
-        <v>100</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50</v>
-      </c>
-      <c r="H4" t="n">
-        <v>50</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>100</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>100</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>50</v>
-      </c>
-      <c r="F8" t="n">
-        <v>50</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>50</v>
-      </c>
-      <c r="F9" t="n">
-        <v>50</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>100</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>100</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D12" t="n">
-        <v>50</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D13" t="n">
-        <v>50</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>50</v>
-      </c>
-      <c r="D14" t="n">
-        <v>50</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>50</v>
-      </c>
-      <c r="D15" t="n">
-        <v>50</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>50</v>
-      </c>
-      <c r="D16" t="n">
-        <v>50</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>50</v>
-      </c>
-      <c r="D17" t="n">
-        <v>50</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>50</v>
-      </c>
-      <c r="D18" t="n">
-        <v>50</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>50</v>
-      </c>
-      <c r="D19" t="n">
-        <v>50</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>50</v>
-      </c>
-      <c r="D20" t="n">
-        <v>50</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>50</v>
-      </c>
-      <c r="D21" t="n">
-        <v>50</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>73</v>
-      </c>
-      <c r="H3" t="n">
-        <v>27</v>
-      </c>
-      <c r="I3" t="n">
-        <v>55</v>
-      </c>
-      <c r="J3" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>73</v>
-      </c>
-      <c r="H4" t="n">
-        <v>27</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18</v>
-      </c>
-      <c r="J4" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>36</v>
-      </c>
-      <c r="H5" t="n">
-        <v>64</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>82</v>
-      </c>
-      <c r="F6" t="n">
-        <v>18</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>91</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>64</v>
-      </c>
-      <c r="F7" t="n">
-        <v>36</v>
-      </c>
-      <c r="G7" t="n">
-        <v>9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>91</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>36</v>
-      </c>
-      <c r="F8" t="n">
-        <v>64</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>91</v>
-      </c>
-      <c r="D9" t="n">
-        <v>9</v>
-      </c>
-      <c r="E9" t="n">
-        <v>18</v>
-      </c>
-      <c r="F9" t="n">
-        <v>82</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>91</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9</v>
-      </c>
-      <c r="F10" t="n">
-        <v>91</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>73</v>
-      </c>
-      <c r="D11" t="n">
-        <v>27</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F11" t="n">
-        <v>91</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>64</v>
-      </c>
-      <c r="D12" t="n">
-        <v>36</v>
-      </c>
-      <c r="E12" t="n">
-        <v>9</v>
-      </c>
-      <c r="F12" t="n">
-        <v>91</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>64</v>
-      </c>
-      <c r="D13" t="n">
-        <v>36</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>55</v>
-      </c>
-      <c r="D14" t="n">
-        <v>45</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>45</v>
-      </c>
-      <c r="D15" t="n">
-        <v>55</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>45</v>
-      </c>
-      <c r="D16" t="n">
-        <v>55</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>36</v>
-      </c>
-      <c r="D17" t="n">
-        <v>64</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>27</v>
-      </c>
-      <c r="D18" t="n">
-        <v>73</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>27</v>
-      </c>
-      <c r="D19" t="n">
-        <v>73</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>18</v>
-      </c>
-      <c r="D20" t="n">
-        <v>82</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>18</v>
-      </c>
-      <c r="D21" t="n">
-        <v>82</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>9</v>
-      </c>
-      <c r="D22" t="n">
-        <v>91</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>9</v>
-      </c>
-      <c r="D23" t="n">
-        <v>91</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>9</v>
-      </c>
-      <c r="D24" t="n">
-        <v>91</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
-        <v>9</v>
-      </c>
-      <c r="D25" t="n">
-        <v>91</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>100</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>100</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>24</v>
-      </c>
-      <c r="C26" t="n">
-        <v>9</v>
-      </c>
-      <c r="D26" t="n">
-        <v>91</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>100</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="n">
-        <v>9</v>
-      </c>
-      <c r="D27" t="n">
-        <v>91</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>100</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>100</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
         <v>100</v>
       </c>
     </row>
@@ -23026,28 +22866,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -23540,28 +23380,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -24502,28 +24342,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -25016,28 +24856,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -25978,28 +25818,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -26940,28 +26780,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -27550,28 +27390,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -28160,28 +28000,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -28930,28 +28770,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -29700,28 +29540,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
@@ -30566,28 +30406,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
@@ -31432,28 +31272,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -32266,28 +32106,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
@@ -33132,28 +32972,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -33966,28 +33806,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -34864,28 +34704,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -35762,28 +35602,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -36564,28 +36404,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -37366,28 +37206,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -38232,28 +38072,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -39098,28 +38938,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -39804,28 +39644,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -40510,28 +40350,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -41024,28 +40864,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -41794,28 +41634,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -42308,28 +42148,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -43270,28 +43110,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -43976,28 +43816,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -44938,28 +44778,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -45548,28 +45388,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -46158,28 +45998,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -46992,28 +46832,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -47730,28 +47570,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -48564,28 +48404,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -49014,28 +48854,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -49880,28 +49720,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -50330,22 +50170,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -50876,22 +50716,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -51422,28 +51262,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -52192,28 +52032,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -52962,28 +52802,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -53700,28 +53540,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -54438,16 +54278,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -54456,10 +54296,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -54952,16 +54792,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -54970,10 +54810,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -55466,28 +55306,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -56428,28 +56268,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -57390,28 +57230,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -58352,28 +58192,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -59218,28 +59058,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -60116,28 +59956,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -61014,28 +60854,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -61848,28 +61688,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -62682,28 +62522,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -63260,28 +63100,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -63838,28 +63678,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -64736,28 +64576,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -65634,28 +65474,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -66532,28 +66372,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -67302,28 +67142,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -68072,28 +67912,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -68810,28 +68650,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -69548,28 +69388,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -70126,28 +69966,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -70704,28 +70544,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -71538,28 +71378,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -72372,28 +72212,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -73014,28 +72854,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -73656,28 +73496,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -74618,28 +74458,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -75164,28 +75004,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -75710,28 +75550,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -76480,28 +76320,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -77250,28 +77090,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -78020,28 +77860,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -78790,28 +78630,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -79560,28 +79400,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -80330,28 +80170,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -81196,28 +81036,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
